--- a/SurfacePlots.xlsx
+++ b/SurfacePlots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epoole/Box Sync/projects/queuingSimulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332E9B14-9FFB-FA42-B721-BF577245313F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD80DEAC-F32D-D442-AE8B-A779DC587558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{51E5ECDF-0379-7149-AD71-D7BE11A49D98}"/>
   </bookViews>
@@ -256,26 +256,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -329,7 +309,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -349,34 +329,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -388,34 +368,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43333300000000002</c:v>
+                  <c:v>0.98333300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31667</c:v>
+                  <c:v>1.23333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8</c:v>
+                  <c:v>1.3333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1833300000000002</c:v>
+                  <c:v>1.4666699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7</c:v>
+                  <c:v>1.56667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1166700000000001</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.51667</c:v>
+                  <c:v>1.8333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.05</c:v>
+                  <c:v>1.93333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4166699999999999</c:v>
+                  <c:v>2.0666699999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,7 +415,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -455,34 +435,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,34 +474,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43333300000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3333299999999999</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2166700000000001</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7833299999999999</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.26667</c:v>
+                  <c:v>1.7166699999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.85</c:v>
+                  <c:v>1.8333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.55</c:v>
+                  <c:v>1.98333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7833300000000003</c:v>
+                  <c:v>2.1166700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,34 +541,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,34 +580,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43333300000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.35</c:v>
+                  <c:v>1.23333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.85</c:v>
+                  <c:v>1.3666700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3666700000000001</c:v>
+                  <c:v>1.48333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>1.6166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9666699999999997</c:v>
+                  <c:v>1.7166699999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.416699999999999</c:v>
+                  <c:v>1.8666700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86.066699999999997</c:v>
+                  <c:v>1.98333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133.917</c:v>
+                  <c:v>2.1333299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,7 +627,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -667,34 +647,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,34 +686,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43333300000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3666700000000001</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.93333</c:v>
+                  <c:v>1.3333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.26667</c:v>
+                  <c:v>1.48333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.8</c:v>
+                  <c:v>1.6333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.583299999999994</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170.21700000000001</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>218.7</c:v>
+                  <c:v>2.0333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>260.983</c:v>
+                  <c:v>2.1833300000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,7 +733,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -773,34 +753,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,34 +792,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43333300000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4166700000000001</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.01667</c:v>
+                  <c:v>1.3833299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.9833</c:v>
+                  <c:v>1.4666699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115.617</c:v>
+                  <c:v>1.6166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>189.483</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250.81700000000001</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>294.66699999999997</c:v>
+                  <c:v>2.0333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>323.3</c:v>
+                  <c:v>2.23333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,7 +839,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -879,34 +859,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,34 +898,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91666700000000001</c:v>
+                  <c:v>1.1333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5333300000000001</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.8667</c:v>
+                  <c:v>1.3833299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132.35</c:v>
+                  <c:v>1.51667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>211.71700000000001</c:v>
+                  <c:v>1.6666700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>271.53300000000002</c:v>
+                  <c:v>1.7833300000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>318.63299999999998</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>362.68299999999999</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>389.65</c:v>
+                  <c:v>2.5833300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,7 +945,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -987,34 +967,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,34 +1006,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43333300000000002</c:v>
+                  <c:v>1.01667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93333299999999997</c:v>
+                  <c:v>1.1333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.31700000000001</c:v>
+                  <c:v>1.3833299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>225.417</c:v>
+                  <c:v>1.51667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>292.35000000000002</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>344.233</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>387.03300000000002</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>417.83300000000003</c:v>
+                  <c:v>2.5666699999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>442.3</c:v>
+                  <c:v>2.8666700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,7 +1053,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1095,34 +1075,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,34 +1114,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98333300000000001</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.966700000000003</c:v>
+                  <c:v>1.2833300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>190.93299999999999</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>285.233</c:v>
+                  <c:v>1.56667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>337.16699999999997</c:v>
+                  <c:v>1.7166699999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>391.233</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>423.06700000000001</c:v>
+                  <c:v>2.5333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>444.2</c:v>
+                  <c:v>2.9166699999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>467.483</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,7 +1161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1203,34 +1183,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,34 +1222,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>1.01667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1666700000000001</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.55</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>233.36699999999999</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>315.41699999999997</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>368</c:v>
+                  <c:v>1.98333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>410.28300000000002</c:v>
+                  <c:v>2.3666700000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>447.05</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>473.93299999999999</c:v>
+                  <c:v>3.23333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>485.91699999999997</c:v>
+                  <c:v>4.1333299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,7 +1269,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1311,34 +1291,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,34 +1330,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>1.01667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.1666700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.55</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>233.36699999999999</c:v>
+                  <c:v>1.4666699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>315.41699999999997</c:v>
+                  <c:v>1.73333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>368</c:v>
+                  <c:v>2.0833300000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>410.28300000000002</c:v>
+                  <c:v>2.6166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>447.05</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>473.93299999999999</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>485.91699999999997</c:v>
+                  <c:v>7.7833300000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,26 +1601,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1733,7 +1693,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1742,7 +1712,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1759,26 +1739,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1852,7 +1812,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -1873,26 +1843,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2121,7 +2071,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2133,34 +2083,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2172,34 +2122,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43333300000000002</c:v>
+                  <c:v>0.98333300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31667</c:v>
+                  <c:v>1.23333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8</c:v>
+                  <c:v>1.3333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1833300000000002</c:v>
+                  <c:v>1.4666699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7</c:v>
+                  <c:v>1.56667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1166700000000001</c:v>
+                  <c:v>1.68333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.51667</c:v>
+                  <c:v>1.81667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.05</c:v>
+                  <c:v>1.93333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4166699999999999</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2219,7 +2169,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2231,34 +2181,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2270,34 +2220,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43333300000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.23333</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.3333299999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5833299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2166700000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7833299999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.26667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.85</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.55</c:v>
+                  <c:v>1.93333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7833300000000003</c:v>
+                  <c:v>2.0666699999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2329,34 +2279,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2368,34 +2318,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43333300000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.23333</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.35</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.48333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5833299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.85</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3666700000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.9666699999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.416699999999999</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>86.066699999999997</c:v>
+                  <c:v>1.93333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133.917</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2415,7 +2365,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2427,34 +2377,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2466,34 +2416,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43333300000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3666700000000001</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.93333</c:v>
+                  <c:v>1.3333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.26667</c:v>
+                  <c:v>1.4666699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.8</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.583299999999994</c:v>
+                  <c:v>1.73333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170.21700000000001</c:v>
+                  <c:v>1.8333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>218.7</c:v>
+                  <c:v>1.98333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>260.983</c:v>
+                  <c:v>2.0833300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,7 +2463,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2525,34 +2475,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2564,34 +2514,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43333300000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4166700000000001</c:v>
+                  <c:v>1.23333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.01667</c:v>
+                  <c:v>1.3833299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.9833</c:v>
+                  <c:v>1.4666699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115.617</c:v>
+                  <c:v>1.5833299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>189.483</c:v>
+                  <c:v>1.7166699999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250.81700000000001</c:v>
+                  <c:v>1.8333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>294.66699999999997</c:v>
+                  <c:v>1.9666699999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>323.3</c:v>
+                  <c:v>2.1666699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,7 +2561,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2623,34 +2573,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2662,34 +2612,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91666700000000001</c:v>
+                  <c:v>1.1166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5333300000000001</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.8667</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132.35</c:v>
+                  <c:v>1.48333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>211.71700000000001</c:v>
+                  <c:v>1.6333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>271.53300000000002</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>318.63299999999998</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>362.68299999999999</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>389.65</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2709,7 +2659,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2721,34 +2671,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2760,34 +2710,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.43333300000000002</c:v>
+                  <c:v>1.01667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93333299999999997</c:v>
+                  <c:v>1.1166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.31700000000001</c:v>
+                  <c:v>1.3666700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>225.417</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>292.35000000000002</c:v>
+                  <c:v>1.6333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>344.233</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>387.03300000000002</c:v>
+                  <c:v>1.93333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>417.83300000000003</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>442.3</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2807,7 +2757,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2819,34 +2769,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,34 +2808,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98333300000000001</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.966700000000003</c:v>
+                  <c:v>1.26667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>190.93299999999999</c:v>
+                  <c:v>1.3666700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>285.233</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>337.16699999999997</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>391.233</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>423.06700000000001</c:v>
+                  <c:v>2.1833300000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>444.2</c:v>
+                  <c:v>2.5333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>467.483</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2905,7 +2855,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2917,34 +2867,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,34 +2906,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>1.01667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1666700000000001</c:v>
+                  <c:v>1.1333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.55</c:v>
+                  <c:v>1.26667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>233.36699999999999</c:v>
+                  <c:v>1.4166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>315.41699999999997</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>368</c:v>
+                  <c:v>1.73333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>410.28300000000002</c:v>
+                  <c:v>1.9166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>447.05</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>473.93299999999999</c:v>
+                  <c:v>2.7166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>485.91699999999997</c:v>
+                  <c:v>3.7833299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3003,7 +2953,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3015,34 +2965,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5</c:v>
+                  <c:v>2.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3054,34 +3004,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>1.01667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1666700000000001</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.55</c:v>
+                  <c:v>1.2833300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>233.36699999999999</c:v>
+                  <c:v>1.4166700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>315.41699999999997</c:v>
+                  <c:v>1.56667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>368</c:v>
+                  <c:v>1.76667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>410.28300000000002</c:v>
+                  <c:v>2.0833300000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>447.05</c:v>
+                  <c:v>3.01667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>473.93299999999999</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>485.91699999999997</c:v>
+                  <c:v>7.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3929,7 +3879,7 @@
   <dimension ref="A1:P3566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3954,159 +3904,159 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>0.43333300000000002</v>
+        <v>0.98333300000000001</v>
       </c>
       <c r="B2" s="2">
-        <v>0.43333300000000002</v>
+        <v>0.98333300000000001</v>
       </c>
       <c r="C2" s="1"/>
       <c r="G2" s="1">
-        <v>0.5</v>
+        <v>1.125</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I2" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="J2" s="1">
         <v>1.5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
+        <v>1.625</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="N2" s="1">
         <v>2</v>
       </c>
-      <c r="K2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="L2" s="1">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="N2" s="1">
-        <v>4</v>
-      </c>
       <c r="O2" s="1">
-        <v>4.5</v>
+        <v>2.125</v>
       </c>
       <c r="P2" s="1">
-        <v>5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="B3" s="2">
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G3" s="3">
         <f>INDEX($A$2:$A$101,ROWS(C$2:C2)*10-10+COLUMNS($C2:C2))</f>
-        <v>0.43333300000000002</v>
+        <v>0.98333300000000001</v>
       </c>
       <c r="H3" s="4">
         <f>INDEX($A$2:$A$101,ROWS(D$2:D2)*10-10+COLUMNS($C2:D2))</f>
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="I3" s="4">
         <f>INDEX($A$2:$A$101,ROWS(E$2:E2)*10-10+COLUMNS($C2:E2))</f>
-        <v>1.31667</v>
+        <v>1.23333</v>
       </c>
       <c r="J3" s="4">
         <f>INDEX($A$2:$A$101,ROWS(F$2:F2)*10-10+COLUMNS($C2:F2))</f>
-        <v>1.8</v>
+        <v>1.3333299999999999</v>
       </c>
       <c r="K3" s="4">
         <f>INDEX($A$2:$A$101,ROWS(G$2:G2)*10-10+COLUMNS($C2:G2))</f>
-        <v>2.1833300000000002</v>
+        <v>1.4666699999999999</v>
       </c>
       <c r="L3" s="4">
         <f>INDEX($A$2:$A$101,ROWS(H$2:H2)*10-10+COLUMNS($C2:H2))</f>
-        <v>2.7</v>
+        <v>1.56667</v>
       </c>
       <c r="M3" s="4">
         <f>INDEX($A$2:$A$101,ROWS(I$2:I2)*10-10+COLUMNS($C2:I2))</f>
-        <v>3.1166700000000001</v>
+        <v>1.68333</v>
       </c>
       <c r="N3" s="4">
         <f>INDEX($A$2:$A$101,ROWS(J$2:J2)*10-10+COLUMNS($C2:J2))</f>
-        <v>3.51667</v>
+        <v>1.81667</v>
       </c>
       <c r="O3" s="4">
         <f>INDEX($A$2:$A$101,ROWS(K$2:K2)*10-10+COLUMNS($C2:K2))</f>
-        <v>4.05</v>
+        <v>1.93333</v>
       </c>
       <c r="P3" s="5">
         <f>INDEX($A$2:$A$101,ROWS(L$2:L2)*10-10+COLUMNS($C2:L2))</f>
-        <v>4.4166699999999999</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1.31667</v>
+        <v>1.23333</v>
       </c>
       <c r="B4" s="2">
-        <v>1.31667</v>
+        <v>1.23333</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="G4" s="6">
         <f>INDEX($A$2:$A$101,ROWS(C$2:C3)*10-10+COLUMNS($C3:C3))</f>
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="H4" s="7">
         <f>INDEX($A$2:$A$101,ROWS(D$2:D3)*10-10+COLUMNS($C3:D3))</f>
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="I4" s="7">
         <f>INDEX($A$2:$A$101,ROWS(E$2:E3)*10-10+COLUMNS($C3:E3))</f>
-        <v>1.3333299999999999</v>
+        <v>1.23333</v>
       </c>
       <c r="J4" s="7">
         <f>INDEX($A$2:$A$101,ROWS(F$2:F3)*10-10+COLUMNS($C3:F3))</f>
-        <v>1.8</v>
+        <v>1.3333299999999999</v>
       </c>
       <c r="K4" s="7">
         <f>INDEX($A$2:$A$101,ROWS(G$2:G3)*10-10+COLUMNS($C3:G3))</f>
-        <v>2.2166700000000001</v>
+        <v>1.45</v>
       </c>
       <c r="L4" s="7">
         <f>INDEX($A$2:$A$101,ROWS(H$2:H3)*10-10+COLUMNS($C3:H3))</f>
-        <v>2.7833299999999999</v>
+        <v>1.5833299999999999</v>
       </c>
       <c r="M4" s="7">
         <f>INDEX($A$2:$A$101,ROWS(I$2:I3)*10-10+COLUMNS($C3:I3))</f>
-        <v>3.26667</v>
+        <v>1.7</v>
       </c>
       <c r="N4" s="7">
         <f>INDEX($A$2:$A$101,ROWS(J$2:J3)*10-10+COLUMNS($C3:J3))</f>
-        <v>3.85</v>
+        <v>1.8</v>
       </c>
       <c r="O4" s="7">
         <f>INDEX($A$2:$A$101,ROWS(K$2:K3)*10-10+COLUMNS($C3:K3))</f>
-        <v>4.55</v>
+        <v>1.93333</v>
       </c>
       <c r="P4" s="8">
         <f>INDEX($A$2:$A$101,ROWS(L$2:L3)*10-10+COLUMNS($C3:L3))</f>
-        <v>5.7833300000000003</v>
+        <v>2.0666699999999998</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>1.8</v>
+        <v>1.3333299999999999</v>
       </c>
       <c r="B5" s="2">
-        <v>1.8</v>
+        <v>1.3333299999999999</v>
       </c>
       <c r="C5" s="1"/>
       <c r="F5" s="1">
@@ -4114,442 +4064,442 @@
       </c>
       <c r="G5" s="6">
         <f>INDEX($A$2:$A$101,ROWS(C$2:C4)*10-10+COLUMNS($C4:C4))</f>
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7">
         <f>INDEX($A$2:$A$101,ROWS(D$2:D4)*10-10+COLUMNS($C4:D4))</f>
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="I5" s="7">
         <f>INDEX($A$2:$A$101,ROWS(E$2:E4)*10-10+COLUMNS($C4:E4))</f>
-        <v>1.35</v>
+        <v>1.23333</v>
       </c>
       <c r="J5" s="7">
         <f>INDEX($A$2:$A$101,ROWS(F$2:F4)*10-10+COLUMNS($C4:F4))</f>
-        <v>1.85</v>
+        <v>1.35</v>
       </c>
       <c r="K5" s="7">
         <f>INDEX($A$2:$A$101,ROWS(G$2:G4)*10-10+COLUMNS($C4:G4))</f>
-        <v>2.3666700000000001</v>
+        <v>1.48333</v>
       </c>
       <c r="L5" s="7">
         <f>INDEX($A$2:$A$101,ROWS(H$2:H4)*10-10+COLUMNS($C4:H4))</f>
-        <v>3</v>
+        <v>1.5833299999999999</v>
       </c>
       <c r="M5" s="7">
         <f>INDEX($A$2:$A$101,ROWS(I$2:I4)*10-10+COLUMNS($C4:I4))</f>
-        <v>4.9666699999999997</v>
+        <v>1.7</v>
       </c>
       <c r="N5" s="7">
         <f>INDEX($A$2:$A$101,ROWS(J$2:J4)*10-10+COLUMNS($C4:J4))</f>
-        <v>18.416699999999999</v>
+        <v>1.85</v>
       </c>
       <c r="O5" s="7">
         <f>INDEX($A$2:$A$101,ROWS(K$2:K4)*10-10+COLUMNS($C4:K4))</f>
-        <v>86.066699999999997</v>
+        <v>1.93333</v>
       </c>
       <c r="P5" s="8">
         <f>INDEX($A$2:$A$101,ROWS(L$2:L4)*10-10+COLUMNS($C4:L4))</f>
-        <v>133.917</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>2.1833300000000002</v>
+        <v>1.4666699999999999</v>
       </c>
       <c r="B6" s="2">
-        <v>2.1833300000000002</v>
+        <v>1.4666699999999999</v>
       </c>
       <c r="C6" s="1"/>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="G6" s="6">
         <f>INDEX($A$2:$A$101,ROWS(C$2:C5)*10-10+COLUMNS($C5:C5))</f>
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="H6" s="7">
         <f>INDEX($A$2:$A$101,ROWS(D$2:D5)*10-10+COLUMNS($C5:D5))</f>
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="I6" s="7">
         <f>INDEX($A$2:$A$101,ROWS(E$2:E5)*10-10+COLUMNS($C5:E5))</f>
-        <v>1.3666700000000001</v>
+        <v>1.25</v>
       </c>
       <c r="J6" s="7">
         <f>INDEX($A$2:$A$101,ROWS(F$2:F5)*10-10+COLUMNS($C5:F5))</f>
-        <v>1.93333</v>
+        <v>1.3333299999999999</v>
       </c>
       <c r="K6" s="7">
         <f>INDEX($A$2:$A$101,ROWS(G$2:G5)*10-10+COLUMNS($C5:G5))</f>
-        <v>3.26667</v>
+        <v>1.4666699999999999</v>
       </c>
       <c r="L6" s="7">
         <f>INDEX($A$2:$A$101,ROWS(H$2:H5)*10-10+COLUMNS($C5:H5))</f>
-        <v>11.8</v>
+        <v>1.6</v>
       </c>
       <c r="M6" s="7">
         <f>INDEX($A$2:$A$101,ROWS(I$2:I5)*10-10+COLUMNS($C5:I5))</f>
-        <v>91.583299999999994</v>
+        <v>1.73333</v>
       </c>
       <c r="N6" s="7">
         <f>INDEX($A$2:$A$101,ROWS(J$2:J5)*10-10+COLUMNS($C5:J5))</f>
-        <v>170.21700000000001</v>
+        <v>1.8333299999999999</v>
       </c>
       <c r="O6" s="7">
         <f>INDEX($A$2:$A$101,ROWS(K$2:K5)*10-10+COLUMNS($C5:K5))</f>
-        <v>218.7</v>
+        <v>1.98333</v>
       </c>
       <c r="P6" s="8">
         <f>INDEX($A$2:$A$101,ROWS(L$2:L5)*10-10+COLUMNS($C5:L5))</f>
-        <v>260.983</v>
+        <v>2.0833300000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>2.7</v>
+        <v>1.56667</v>
       </c>
       <c r="B7" s="2">
-        <v>2.7</v>
+        <v>1.56667</v>
       </c>
       <c r="C7" s="1"/>
       <c r="F7" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G7" s="6">
         <f>INDEX($A$2:$A$101,ROWS(C$2:C6)*10-10+COLUMNS($C6:C6))</f>
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="H7" s="7">
         <f>INDEX($A$2:$A$101,ROWS(D$2:D6)*10-10+COLUMNS($C6:D6))</f>
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="I7" s="7">
         <f>INDEX($A$2:$A$101,ROWS(E$2:E6)*10-10+COLUMNS($C6:E6))</f>
-        <v>1.4166700000000001</v>
+        <v>1.23333</v>
       </c>
       <c r="J7" s="7">
         <f>INDEX($A$2:$A$101,ROWS(F$2:F6)*10-10+COLUMNS($C6:F6))</f>
-        <v>3.01667</v>
+        <v>1.3833299999999999</v>
       </c>
       <c r="K7" s="7">
         <f>INDEX($A$2:$A$101,ROWS(G$2:G6)*10-10+COLUMNS($C6:G6))</f>
-        <v>23.9833</v>
+        <v>1.4666699999999999</v>
       </c>
       <c r="L7" s="7">
         <f>INDEX($A$2:$A$101,ROWS(H$2:H6)*10-10+COLUMNS($C6:H6))</f>
-        <v>115.617</v>
+        <v>1.5833299999999999</v>
       </c>
       <c r="M7" s="7">
         <f>INDEX($A$2:$A$101,ROWS(I$2:I6)*10-10+COLUMNS($C6:I6))</f>
-        <v>189.483</v>
+        <v>1.7166699999999999</v>
       </c>
       <c r="N7" s="7">
         <f>INDEX($A$2:$A$101,ROWS(J$2:J6)*10-10+COLUMNS($C6:J6))</f>
-        <v>250.81700000000001</v>
+        <v>1.8333299999999999</v>
       </c>
       <c r="O7" s="7">
         <f>INDEX($A$2:$A$101,ROWS(K$2:K6)*10-10+COLUMNS($C6:K6))</f>
-        <v>294.66699999999997</v>
+        <v>1.9666699999999999</v>
       </c>
       <c r="P7" s="8">
         <f>INDEX($A$2:$A$101,ROWS(L$2:L6)*10-10+COLUMNS($C6:L6))</f>
-        <v>323.3</v>
+        <v>2.1666699999999999</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>3.1166700000000001</v>
+        <v>1.68333</v>
       </c>
       <c r="B8" s="2">
-        <v>3.1166700000000001</v>
+        <v>1.7</v>
       </c>
       <c r="C8" s="1"/>
       <c r="F8" s="1">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="G8" s="6">
         <f>INDEX($A$2:$A$101,ROWS(C$2:C7)*10-10+COLUMNS($C7:C7))</f>
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7">
         <f>INDEX($A$2:$A$101,ROWS(D$2:D7)*10-10+COLUMNS($C7:D7))</f>
-        <v>0.91666700000000001</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="I8" s="7">
         <f>INDEX($A$2:$A$101,ROWS(E$2:E7)*10-10+COLUMNS($C7:E7))</f>
-        <v>1.5333300000000001</v>
+        <v>1.25</v>
       </c>
       <c r="J8" s="7">
         <f>INDEX($A$2:$A$101,ROWS(F$2:F7)*10-10+COLUMNS($C7:F7))</f>
-        <v>11.8667</v>
+        <v>1.35</v>
       </c>
       <c r="K8" s="7">
         <f>INDEX($A$2:$A$101,ROWS(G$2:G7)*10-10+COLUMNS($C7:G7))</f>
-        <v>132.35</v>
+        <v>1.48333</v>
       </c>
       <c r="L8" s="7">
         <f>INDEX($A$2:$A$101,ROWS(H$2:H7)*10-10+COLUMNS($C7:H7))</f>
-        <v>211.71700000000001</v>
+        <v>1.6333299999999999</v>
       </c>
       <c r="M8" s="7">
         <f>INDEX($A$2:$A$101,ROWS(I$2:I7)*10-10+COLUMNS($C7:I7))</f>
-        <v>271.53300000000002</v>
+        <v>1.75</v>
       </c>
       <c r="N8" s="7">
         <f>INDEX($A$2:$A$101,ROWS(J$2:J7)*10-10+COLUMNS($C7:J7))</f>
-        <v>318.63299999999998</v>
+        <v>1.9</v>
       </c>
       <c r="O8" s="7">
         <f>INDEX($A$2:$A$101,ROWS(K$2:K7)*10-10+COLUMNS($C7:K7))</f>
-        <v>362.68299999999999</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="P8" s="8">
         <f>INDEX($A$2:$A$101,ROWS(L$2:L7)*10-10+COLUMNS($C7:L7))</f>
-        <v>389.65</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>3.51667</v>
+        <v>1.81667</v>
       </c>
       <c r="B9" s="2">
-        <v>3.51667</v>
+        <v>1.8333299999999999</v>
       </c>
       <c r="C9" s="1"/>
       <c r="F9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9" s="6">
         <f>INDEX($A$2:$A$101,ROWS(C$2:C8)*10-10+COLUMNS($C8:C8))</f>
-        <v>0.43333300000000002</v>
+        <v>1.01667</v>
       </c>
       <c r="H9" s="7">
         <f>INDEX($A$2:$A$101,ROWS(D$2:D8)*10-10+COLUMNS($C8:D8))</f>
-        <v>0.93333299999999997</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="I9" s="7">
         <f>INDEX($A$2:$A$101,ROWS(E$2:E8)*10-10+COLUMNS($C8:E8))</f>
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="J9" s="7">
         <f>INDEX($A$2:$A$101,ROWS(F$2:F8)*10-10+COLUMNS($C8:F8))</f>
-        <v>128.31700000000001</v>
+        <v>1.3666700000000001</v>
       </c>
       <c r="K9" s="7">
         <f>INDEX($A$2:$A$101,ROWS(G$2:G8)*10-10+COLUMNS($C8:G8))</f>
-        <v>225.417</v>
+        <v>1.5</v>
       </c>
       <c r="L9" s="7">
         <f>INDEX($A$2:$A$101,ROWS(H$2:H8)*10-10+COLUMNS($C8:H8))</f>
-        <v>292.35000000000002</v>
+        <v>1.6333299999999999</v>
       </c>
       <c r="M9" s="7">
         <f>INDEX($A$2:$A$101,ROWS(I$2:I8)*10-10+COLUMNS($C8:I8))</f>
-        <v>344.233</v>
+        <v>1.8</v>
       </c>
       <c r="N9" s="7">
         <f>INDEX($A$2:$A$101,ROWS(J$2:J8)*10-10+COLUMNS($C8:J8))</f>
-        <v>387.03300000000002</v>
+        <v>1.93333</v>
       </c>
       <c r="O9" s="7">
         <f>INDEX($A$2:$A$101,ROWS(K$2:K8)*10-10+COLUMNS($C8:K8))</f>
-        <v>417.83300000000003</v>
+        <v>2.1</v>
       </c>
       <c r="P9" s="8">
         <f>INDEX($A$2:$A$101,ROWS(L$2:L8)*10-10+COLUMNS($C8:L8))</f>
-        <v>442.3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>4.05</v>
+        <v>1.93333</v>
       </c>
       <c r="B10" s="2">
-        <v>4.05</v>
+        <v>1.93333</v>
       </c>
       <c r="C10" s="1"/>
       <c r="F10" s="1">
-        <v>8</v>
+        <v>4.25</v>
       </c>
       <c r="G10" s="6">
         <f>INDEX($A$2:$A$101,ROWS(C$2:C9)*10-10+COLUMNS($C9:C9))</f>
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="H10" s="7">
         <f>INDEX($A$2:$A$101,ROWS(D$2:D9)*10-10+COLUMNS($C9:D9))</f>
-        <v>0.98333300000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I10" s="7">
         <f>INDEX($A$2:$A$101,ROWS(E$2:E9)*10-10+COLUMNS($C9:E9))</f>
-        <v>34.966700000000003</v>
+        <v>1.26667</v>
       </c>
       <c r="J10" s="7">
         <f>INDEX($A$2:$A$101,ROWS(F$2:F9)*10-10+COLUMNS($C9:F9))</f>
-        <v>190.93299999999999</v>
+        <v>1.3666700000000001</v>
       </c>
       <c r="K10" s="7">
         <f>INDEX($A$2:$A$101,ROWS(G$2:G9)*10-10+COLUMNS($C9:G9))</f>
-        <v>285.233</v>
+        <v>1.55</v>
       </c>
       <c r="L10" s="7">
         <f>INDEX($A$2:$A$101,ROWS(H$2:H9)*10-10+COLUMNS($C9:H9))</f>
-        <v>337.16699999999997</v>
+        <v>1.65</v>
       </c>
       <c r="M10" s="7">
         <f>INDEX($A$2:$A$101,ROWS(I$2:I9)*10-10+COLUMNS($C9:I9))</f>
-        <v>391.233</v>
+        <v>1.85</v>
       </c>
       <c r="N10" s="7">
         <f>INDEX($A$2:$A$101,ROWS(J$2:J9)*10-10+COLUMNS($C9:J9))</f>
-        <v>423.06700000000001</v>
+        <v>2.1833300000000002</v>
       </c>
       <c r="O10" s="7">
         <f>INDEX($A$2:$A$101,ROWS(K$2:K9)*10-10+COLUMNS($C9:K9))</f>
-        <v>444.2</v>
+        <v>2.5333299999999999</v>
       </c>
       <c r="P10" s="8">
         <f>INDEX($A$2:$A$101,ROWS(L$2:L9)*10-10+COLUMNS($C9:L9))</f>
-        <v>467.483</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>4.4166699999999999</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="B11" s="2">
-        <v>4.4166699999999999</v>
+        <v>2.0666699999999998</v>
       </c>
       <c r="C11" s="1"/>
       <c r="F11" s="1">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="G11" s="6">
         <f>INDEX($A$2:$A$101,ROWS(C$2:C10)*10-10+COLUMNS($C10:C10))</f>
-        <v>0.45</v>
+        <v>1.01667</v>
       </c>
       <c r="H11" s="7">
         <f>INDEX($A$2:$A$101,ROWS(D$2:D10)*10-10+COLUMNS($C10:D10))</f>
-        <v>1.1666700000000001</v>
+        <v>1.1333299999999999</v>
       </c>
       <c r="I11" s="7">
         <f>INDEX($A$2:$A$101,ROWS(E$2:E10)*10-10+COLUMNS($C10:E10))</f>
-        <v>92.55</v>
+        <v>1.26667</v>
       </c>
       <c r="J11" s="7">
         <f>INDEX($A$2:$A$101,ROWS(F$2:F10)*10-10+COLUMNS($C10:F10))</f>
-        <v>233.36699999999999</v>
+        <v>1.4166700000000001</v>
       </c>
       <c r="K11" s="7">
         <f>INDEX($A$2:$A$101,ROWS(G$2:G10)*10-10+COLUMNS($C10:G10))</f>
-        <v>315.41699999999997</v>
+        <v>1.55</v>
       </c>
       <c r="L11" s="7">
         <f>INDEX($A$2:$A$101,ROWS(H$2:H10)*10-10+COLUMNS($C10:H10))</f>
-        <v>368</v>
+        <v>1.73333</v>
       </c>
       <c r="M11" s="7">
         <f>INDEX($A$2:$A$101,ROWS(I$2:I10)*10-10+COLUMNS($C10:I10))</f>
-        <v>410.28300000000002</v>
+        <v>1.9166700000000001</v>
       </c>
       <c r="N11" s="7">
         <f>INDEX($A$2:$A$101,ROWS(J$2:J10)*10-10+COLUMNS($C10:J10))</f>
-        <v>447.05</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O11" s="7">
         <f>INDEX($A$2:$A$101,ROWS(K$2:K10)*10-10+COLUMNS($C10:K10))</f>
-        <v>473.93299999999999</v>
+        <v>2.7166700000000001</v>
       </c>
       <c r="P11" s="8">
         <f>INDEX($A$2:$A$101,ROWS(L$2:L10)*10-10+COLUMNS($C10:L10))</f>
-        <v>485.91699999999997</v>
+        <v>3.7833299999999999</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1"/>
       <c r="F12" s="1">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="G12" s="9">
         <f>INDEX($A$2:$A$101,ROWS(C$2:C11)*10-10+COLUMNS($C11:C11))</f>
-        <v>0.45</v>
+        <v>1.01667</v>
       </c>
       <c r="H12" s="10">
         <f>INDEX($A$2:$A$101,ROWS(D$2:D11)*10-10+COLUMNS($C11:D11))</f>
-        <v>1.1666700000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I12" s="10">
         <f>INDEX($A$2:$A$101,ROWS(E$2:E11)*10-10+COLUMNS($C11:E11))</f>
-        <v>92.55</v>
+        <v>1.2833300000000001</v>
       </c>
       <c r="J12" s="10">
         <f>INDEX($A$2:$A$101,ROWS(F$2:F11)*10-10+COLUMNS($C11:F11))</f>
-        <v>233.36699999999999</v>
+        <v>1.4166700000000001</v>
       </c>
       <c r="K12" s="10">
         <f>INDEX($A$2:$A$101,ROWS(G$2:G11)*10-10+COLUMNS($C11:G11))</f>
-        <v>315.41699999999997</v>
+        <v>1.56667</v>
       </c>
       <c r="L12" s="10">
         <f>INDEX($A$2:$A$101,ROWS(H$2:H11)*10-10+COLUMNS($C11:H11))</f>
-        <v>368</v>
+        <v>1.76667</v>
       </c>
       <c r="M12" s="10">
         <f>INDEX($A$2:$A$101,ROWS(I$2:I11)*10-10+COLUMNS($C11:I11))</f>
-        <v>410.28300000000002</v>
+        <v>2.0833300000000001</v>
       </c>
       <c r="N12" s="10">
         <f>INDEX($A$2:$A$101,ROWS(J$2:J11)*10-10+COLUMNS($C11:J11))</f>
-        <v>447.05</v>
+        <v>3.01667</v>
       </c>
       <c r="O12" s="10">
         <f>INDEX($A$2:$A$101,ROWS(K$2:K11)*10-10+COLUMNS($C11:K11))</f>
-        <v>473.93299999999999</v>
+        <v>3.9</v>
       </c>
       <c r="P12" s="11">
         <f>INDEX($A$2:$A$101,ROWS(L$2:L11)*10-10+COLUMNS($C11:L11))</f>
-        <v>485.91699999999997</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="B13" s="2">
-        <v>0.9</v>
+        <v>1.1333299999999999</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>1.3333299999999999</v>
+        <v>1.23333</v>
       </c>
       <c r="B14" s="2">
-        <v>1.3333299999999999</v>
+        <v>1.25</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>1.8</v>
+        <v>1.3333299999999999</v>
       </c>
       <c r="B15" s="2">
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>2.2166700000000001</v>
+        <v>1.45</v>
       </c>
       <c r="B16" s="2">
-        <v>2.2166700000000001</v>
+        <v>1.45</v>
       </c>
       <c r="C16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -4561,159 +4511,159 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>2.7833299999999999</v>
+        <v>1.5833299999999999</v>
       </c>
       <c r="B17" s="2">
-        <v>2.7833299999999999</v>
+        <v>1.6</v>
       </c>
       <c r="C17" s="1"/>
       <c r="G17" s="1">
-        <v>0.5</v>
+        <v>1.125</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="I17" s="1">
+        <v>1.375</v>
+      </c>
+      <c r="J17" s="1">
         <v>1.5</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
+        <v>1.625</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="N17" s="1">
         <v>2</v>
       </c>
-      <c r="K17" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="L17" s="1">
-        <v>3</v>
-      </c>
-      <c r="M17" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="N17" s="1">
-        <v>4</v>
-      </c>
       <c r="O17" s="1">
-        <v>4.5</v>
+        <v>2.125</v>
       </c>
       <c r="P17" s="1">
-        <v>5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>3.26667</v>
+        <v>1.7</v>
       </c>
       <c r="B18" s="2">
-        <v>3.26667</v>
+        <v>1.7166699999999999</v>
       </c>
       <c r="C18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G18" s="3">
         <f>INDEX($B$2:$B$101,ROWS(C$2:C2)*10-10+COLUMNS($C2:C2))</f>
-        <v>0.43333300000000002</v>
+        <v>0.98333300000000001</v>
       </c>
       <c r="H18" s="4">
         <f>INDEX($B$2:$B$101,ROWS(D$2:D2)*10-10+COLUMNS($C2:D2))</f>
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="I18" s="4">
         <f>INDEX($B$2:$B$101,ROWS(E$2:E2)*10-10+COLUMNS($C2:E2))</f>
-        <v>1.31667</v>
+        <v>1.23333</v>
       </c>
       <c r="J18" s="4">
         <f>INDEX($B$2:$B$101,ROWS(F$2:F2)*10-10+COLUMNS($C2:F2))</f>
-        <v>1.8</v>
+        <v>1.3333299999999999</v>
       </c>
       <c r="K18" s="4">
         <f>INDEX($B$2:$B$101,ROWS(G$2:G2)*10-10+COLUMNS($C2:G2))</f>
-        <v>2.1833300000000002</v>
+        <v>1.4666699999999999</v>
       </c>
       <c r="L18" s="4">
         <f>INDEX($B$2:$B$101,ROWS(H$2:H2)*10-10+COLUMNS($C2:H2))</f>
-        <v>2.7</v>
+        <v>1.56667</v>
       </c>
       <c r="M18" s="4">
         <f>INDEX($B$2:$B$101,ROWS(I$2:I2)*10-10+COLUMNS($C2:I2))</f>
-        <v>3.1166700000000001</v>
+        <v>1.7</v>
       </c>
       <c r="N18" s="4">
         <f>INDEX($B$2:$B$101,ROWS(J$2:J2)*10-10+COLUMNS($C2:J2))</f>
-        <v>3.51667</v>
+        <v>1.8333299999999999</v>
       </c>
       <c r="O18" s="4">
         <f>INDEX($B$2:$B$101,ROWS(K$2:K2)*10-10+COLUMNS($C2:K2))</f>
-        <v>4.05</v>
+        <v>1.93333</v>
       </c>
       <c r="P18" s="5">
         <f>INDEX($B$2:$B$101,ROWS(L$2:L2)*10-10+COLUMNS($C2:L2))</f>
-        <v>4.4166699999999999</v>
+        <v>2.0666699999999998</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>3.85</v>
+        <v>1.8</v>
       </c>
       <c r="B19" s="2">
-        <v>3.85</v>
+        <v>1.8333299999999999</v>
       </c>
       <c r="C19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="G19" s="6">
         <f>INDEX($B$2:$B$101,ROWS(C$2:C3)*10-10+COLUMNS($C3:C3))</f>
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7">
         <f>INDEX($B$2:$B$101,ROWS(D$2:D3)*10-10+COLUMNS($C3:D3))</f>
-        <v>0.9</v>
+        <v>1.1333299999999999</v>
       </c>
       <c r="I19" s="7">
         <f>INDEX($B$2:$B$101,ROWS(E$2:E3)*10-10+COLUMNS($C3:E3))</f>
-        <v>1.3333299999999999</v>
+        <v>1.25</v>
       </c>
       <c r="J19" s="7">
         <f>INDEX($B$2:$B$101,ROWS(F$2:F3)*10-10+COLUMNS($C3:F3))</f>
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
       <c r="K19" s="7">
         <f>INDEX($B$2:$B$101,ROWS(G$2:G3)*10-10+COLUMNS($C3:G3))</f>
-        <v>2.2166700000000001</v>
+        <v>1.45</v>
       </c>
       <c r="L19" s="7">
         <f>INDEX($B$2:$B$101,ROWS(H$2:H3)*10-10+COLUMNS($C3:H3))</f>
-        <v>2.7833299999999999</v>
+        <v>1.6</v>
       </c>
       <c r="M19" s="7">
         <f>INDEX($B$2:$B$101,ROWS(I$2:I3)*10-10+COLUMNS($C3:I3))</f>
-        <v>3.26667</v>
+        <v>1.7166699999999999</v>
       </c>
       <c r="N19" s="7">
         <f>INDEX($B$2:$B$101,ROWS(J$2:J3)*10-10+COLUMNS($C3:J3))</f>
-        <v>3.85</v>
+        <v>1.8333299999999999</v>
       </c>
       <c r="O19" s="7">
         <f>INDEX($B$2:$B$101,ROWS(K$2:K3)*10-10+COLUMNS($C3:K3))</f>
-        <v>4.55</v>
+        <v>1.98333</v>
       </c>
       <c r="P19" s="8">
         <f>INDEX($B$2:$B$101,ROWS(L$2:L3)*10-10+COLUMNS($C3:L3))</f>
-        <v>5.7833300000000003</v>
+        <v>2.1166700000000001</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>4.55</v>
+        <v>1.93333</v>
       </c>
       <c r="B20" s="2">
-        <v>4.55</v>
+        <v>1.98333</v>
       </c>
       <c r="C20" s="1"/>
       <c r="F20" s="1">
@@ -4721,371 +4671,371 @@
       </c>
       <c r="G20" s="6">
         <f>INDEX($B$2:$B$101,ROWS(C$2:C4)*10-10+COLUMNS($C4:C4))</f>
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="H20" s="7">
         <f>INDEX($B$2:$B$101,ROWS(D$2:D4)*10-10+COLUMNS($C4:D4))</f>
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="I20" s="7">
         <f>INDEX($B$2:$B$101,ROWS(E$2:E4)*10-10+COLUMNS($C4:E4))</f>
-        <v>1.35</v>
+        <v>1.23333</v>
       </c>
       <c r="J20" s="7">
         <f>INDEX($B$2:$B$101,ROWS(F$2:F4)*10-10+COLUMNS($C4:F4))</f>
-        <v>1.85</v>
+        <v>1.3666700000000001</v>
       </c>
       <c r="K20" s="7">
         <f>INDEX($B$2:$B$101,ROWS(G$2:G4)*10-10+COLUMNS($C4:G4))</f>
-        <v>2.3666700000000001</v>
+        <v>1.48333</v>
       </c>
       <c r="L20" s="7">
         <f>INDEX($B$2:$B$101,ROWS(H$2:H4)*10-10+COLUMNS($C4:H4))</f>
-        <v>3</v>
+        <v>1.6166700000000001</v>
       </c>
       <c r="M20" s="7">
         <f>INDEX($B$2:$B$101,ROWS(I$2:I4)*10-10+COLUMNS($C4:I4))</f>
-        <v>4.9666699999999997</v>
+        <v>1.7166699999999999</v>
       </c>
       <c r="N20" s="7">
         <f>INDEX($B$2:$B$101,ROWS(J$2:J4)*10-10+COLUMNS($C4:J4))</f>
-        <v>18.416699999999999</v>
+        <v>1.8666700000000001</v>
       </c>
       <c r="O20" s="7">
         <f>INDEX($B$2:$B$101,ROWS(K$2:K4)*10-10+COLUMNS($C4:K4))</f>
-        <v>86.066699999999997</v>
+        <v>1.98333</v>
       </c>
       <c r="P20" s="8">
         <f>INDEX($B$2:$B$101,ROWS(L$2:L4)*10-10+COLUMNS($C4:L4))</f>
-        <v>133.917</v>
+        <v>2.1333299999999999</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>5.7833300000000003</v>
+        <v>2.0666699999999998</v>
       </c>
       <c r="B21" s="2">
-        <v>5.7833300000000003</v>
+        <v>2.1166700000000001</v>
       </c>
       <c r="C21" s="1"/>
       <c r="F21" s="1">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="G21" s="6">
         <f>INDEX($B$2:$B$101,ROWS(C$2:C5)*10-10+COLUMNS($C5:C5))</f>
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="H21" s="7">
         <f>INDEX($B$2:$B$101,ROWS(D$2:D5)*10-10+COLUMNS($C5:D5))</f>
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="I21" s="7">
         <f>INDEX($B$2:$B$101,ROWS(E$2:E5)*10-10+COLUMNS($C5:E5))</f>
-        <v>1.3666700000000001</v>
+        <v>1.25</v>
       </c>
       <c r="J21" s="7">
         <f>INDEX($B$2:$B$101,ROWS(F$2:F5)*10-10+COLUMNS($C5:F5))</f>
-        <v>1.93333</v>
+        <v>1.3333299999999999</v>
       </c>
       <c r="K21" s="7">
         <f>INDEX($B$2:$B$101,ROWS(G$2:G5)*10-10+COLUMNS($C5:G5))</f>
-        <v>3.26667</v>
+        <v>1.48333</v>
       </c>
       <c r="L21" s="7">
         <f>INDEX($B$2:$B$101,ROWS(H$2:H5)*10-10+COLUMNS($C5:H5))</f>
-        <v>11.8</v>
+        <v>1.6333299999999999</v>
       </c>
       <c r="M21" s="7">
         <f>INDEX($B$2:$B$101,ROWS(I$2:I5)*10-10+COLUMNS($C5:I5))</f>
-        <v>91.583299999999994</v>
+        <v>1.75</v>
       </c>
       <c r="N21" s="7">
         <f>INDEX($B$2:$B$101,ROWS(J$2:J5)*10-10+COLUMNS($C5:J5))</f>
-        <v>170.21700000000001</v>
+        <v>1.85</v>
       </c>
       <c r="O21" s="7">
         <f>INDEX($B$2:$B$101,ROWS(K$2:K5)*10-10+COLUMNS($C5:K5))</f>
-        <v>218.7</v>
+        <v>2.0333299999999999</v>
       </c>
       <c r="P21" s="8">
         <f>INDEX($B$2:$B$101,ROWS(L$2:L5)*10-10+COLUMNS($C5:L5))</f>
-        <v>260.983</v>
+        <v>2.1833300000000002</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2">
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1"/>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G22" s="6">
         <f>INDEX($B$2:$B$101,ROWS(C$2:C6)*10-10+COLUMNS($C6:C6))</f>
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="H22" s="7">
         <f>INDEX($B$2:$B$101,ROWS(D$2:D6)*10-10+COLUMNS($C6:D6))</f>
-        <v>0.9</v>
+        <v>1.1333299999999999</v>
       </c>
       <c r="I22" s="7">
         <f>INDEX($B$2:$B$101,ROWS(E$2:E6)*10-10+COLUMNS($C6:E6))</f>
-        <v>1.4166700000000001</v>
+        <v>1.25</v>
       </c>
       <c r="J22" s="7">
         <f>INDEX($B$2:$B$101,ROWS(F$2:F6)*10-10+COLUMNS($C6:F6))</f>
-        <v>3.01667</v>
+        <v>1.3833299999999999</v>
       </c>
       <c r="K22" s="7">
         <f>INDEX($B$2:$B$101,ROWS(G$2:G6)*10-10+COLUMNS($C6:G6))</f>
-        <v>23.9833</v>
+        <v>1.4666699999999999</v>
       </c>
       <c r="L22" s="7">
         <f>INDEX($B$2:$B$101,ROWS(H$2:H6)*10-10+COLUMNS($C6:H6))</f>
-        <v>115.617</v>
+        <v>1.6166700000000001</v>
       </c>
       <c r="M22" s="7">
         <f>INDEX($B$2:$B$101,ROWS(I$2:I6)*10-10+COLUMNS($C6:I6))</f>
-        <v>189.483</v>
+        <v>1.75</v>
       </c>
       <c r="N22" s="7">
         <f>INDEX($B$2:$B$101,ROWS(J$2:J6)*10-10+COLUMNS($C6:J6))</f>
-        <v>250.81700000000001</v>
+        <v>1.9</v>
       </c>
       <c r="O22" s="7">
         <f>INDEX($B$2:$B$101,ROWS(K$2:K6)*10-10+COLUMNS($C6:K6))</f>
-        <v>294.66699999999997</v>
+        <v>2.0333299999999999</v>
       </c>
       <c r="P22" s="8">
         <f>INDEX($B$2:$B$101,ROWS(L$2:L6)*10-10+COLUMNS($C6:L6))</f>
-        <v>323.3</v>
+        <v>2.23333</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="B23" s="2">
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="C23" s="1"/>
       <c r="F23" s="1">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="G23" s="6">
         <f>INDEX($B$2:$B$101,ROWS(C$2:C7)*10-10+COLUMNS($C7:C7))</f>
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="H23" s="7">
         <f>INDEX($B$2:$B$101,ROWS(D$2:D7)*10-10+COLUMNS($C7:D7))</f>
-        <v>0.91666700000000001</v>
+        <v>1.1333299999999999</v>
       </c>
       <c r="I23" s="7">
         <f>INDEX($B$2:$B$101,ROWS(E$2:E7)*10-10+COLUMNS($C7:E7))</f>
-        <v>1.5333300000000001</v>
+        <v>1.25</v>
       </c>
       <c r="J23" s="7">
         <f>INDEX($B$2:$B$101,ROWS(F$2:F7)*10-10+COLUMNS($C7:F7))</f>
-        <v>11.8667</v>
+        <v>1.3833299999999999</v>
       </c>
       <c r="K23" s="7">
         <f>INDEX($B$2:$B$101,ROWS(G$2:G7)*10-10+COLUMNS($C7:G7))</f>
-        <v>132.35</v>
+        <v>1.51667</v>
       </c>
       <c r="L23" s="7">
         <f>INDEX($B$2:$B$101,ROWS(H$2:H7)*10-10+COLUMNS($C7:H7))</f>
-        <v>211.71700000000001</v>
+        <v>1.6666700000000001</v>
       </c>
       <c r="M23" s="7">
         <f>INDEX($B$2:$B$101,ROWS(I$2:I7)*10-10+COLUMNS($C7:I7))</f>
-        <v>271.53300000000002</v>
+        <v>1.7833300000000001</v>
       </c>
       <c r="N23" s="7">
         <f>INDEX($B$2:$B$101,ROWS(J$2:J7)*10-10+COLUMNS($C7:J7))</f>
-        <v>318.63299999999998</v>
+        <v>2</v>
       </c>
       <c r="O23" s="7">
         <f>INDEX($B$2:$B$101,ROWS(K$2:K7)*10-10+COLUMNS($C7:K7))</f>
-        <v>362.68299999999999</v>
+        <v>2.15</v>
       </c>
       <c r="P23" s="8">
         <f>INDEX($B$2:$B$101,ROWS(L$2:L7)*10-10+COLUMNS($C7:L7))</f>
-        <v>389.65</v>
+        <v>2.5833300000000001</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>1.35</v>
+        <v>1.23333</v>
       </c>
       <c r="B24" s="2">
-        <v>1.35</v>
+        <v>1.23333</v>
       </c>
       <c r="C24" s="1"/>
       <c r="F24" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G24" s="6">
         <f>INDEX($B$2:$B$101,ROWS(C$2:C8)*10-10+COLUMNS($C8:C8))</f>
-        <v>0.43333300000000002</v>
+        <v>1.01667</v>
       </c>
       <c r="H24" s="7">
         <f>INDEX($B$2:$B$101,ROWS(D$2:D8)*10-10+COLUMNS($C8:D8))</f>
-        <v>0.93333299999999997</v>
+        <v>1.1333299999999999</v>
       </c>
       <c r="I24" s="7">
         <f>INDEX($B$2:$B$101,ROWS(E$2:E8)*10-10+COLUMNS($C8:E8))</f>
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="J24" s="7">
         <f>INDEX($B$2:$B$101,ROWS(F$2:F8)*10-10+COLUMNS($C8:F8))</f>
-        <v>128.31700000000001</v>
+        <v>1.3833299999999999</v>
       </c>
       <c r="K24" s="7">
         <f>INDEX($B$2:$B$101,ROWS(G$2:G8)*10-10+COLUMNS($C8:G8))</f>
-        <v>225.417</v>
+        <v>1.51667</v>
       </c>
       <c r="L24" s="7">
         <f>INDEX($B$2:$B$101,ROWS(H$2:H8)*10-10+COLUMNS($C8:H8))</f>
-        <v>292.35000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="M24" s="7">
         <f>INDEX($B$2:$B$101,ROWS(I$2:I8)*10-10+COLUMNS($C8:I8))</f>
-        <v>344.233</v>
+        <v>1.85</v>
       </c>
       <c r="N24" s="7">
         <f>INDEX($B$2:$B$101,ROWS(J$2:J8)*10-10+COLUMNS($C8:J8))</f>
-        <v>387.03300000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O24" s="7">
         <f>INDEX($B$2:$B$101,ROWS(K$2:K8)*10-10+COLUMNS($C8:K8))</f>
-        <v>417.83300000000003</v>
+        <v>2.5666699999999998</v>
       </c>
       <c r="P24" s="8">
         <f>INDEX($B$2:$B$101,ROWS(L$2:L8)*10-10+COLUMNS($C8:L8))</f>
-        <v>442.3</v>
+        <v>2.8666700000000001</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>1.85</v>
+        <v>1.35</v>
       </c>
       <c r="B25" s="2">
-        <v>1.85</v>
+        <v>1.3666700000000001</v>
       </c>
       <c r="C25" s="1"/>
       <c r="F25" s="1">
-        <v>8</v>
+        <v>4.25</v>
       </c>
       <c r="G25" s="6">
         <f>INDEX($B$2:$B$101,ROWS(C$2:C9)*10-10+COLUMNS($C9:C9))</f>
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="H25" s="7">
         <f>INDEX($B$2:$B$101,ROWS(D$2:D9)*10-10+COLUMNS($C9:D9))</f>
-        <v>0.98333300000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I25" s="7">
         <f>INDEX($B$2:$B$101,ROWS(E$2:E9)*10-10+COLUMNS($C9:E9))</f>
-        <v>34.966700000000003</v>
+        <v>1.2833300000000001</v>
       </c>
       <c r="J25" s="7">
         <f>INDEX($B$2:$B$101,ROWS(F$2:F9)*10-10+COLUMNS($C9:F9))</f>
-        <v>190.93299999999999</v>
+        <v>1.4</v>
       </c>
       <c r="K25" s="7">
         <f>INDEX($B$2:$B$101,ROWS(G$2:G9)*10-10+COLUMNS($C9:G9))</f>
-        <v>285.233</v>
+        <v>1.56667</v>
       </c>
       <c r="L25" s="7">
         <f>INDEX($B$2:$B$101,ROWS(H$2:H9)*10-10+COLUMNS($C9:H9))</f>
-        <v>337.16699999999997</v>
+        <v>1.7166699999999999</v>
       </c>
       <c r="M25" s="7">
         <f>INDEX($B$2:$B$101,ROWS(I$2:I9)*10-10+COLUMNS($C9:I9))</f>
-        <v>391.233</v>
+        <v>2.15</v>
       </c>
       <c r="N25" s="7">
         <f>INDEX($B$2:$B$101,ROWS(J$2:J9)*10-10+COLUMNS($C9:J9))</f>
-        <v>423.06700000000001</v>
+        <v>2.5333299999999999</v>
       </c>
       <c r="O25" s="7">
         <f>INDEX($B$2:$B$101,ROWS(K$2:K9)*10-10+COLUMNS($C9:K9))</f>
-        <v>444.2</v>
+        <v>2.9166699999999999</v>
       </c>
       <c r="P25" s="8">
         <f>INDEX($B$2:$B$101,ROWS(L$2:L9)*10-10+COLUMNS($C9:L9))</f>
-        <v>467.483</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>2.3666700000000001</v>
+        <v>1.48333</v>
       </c>
       <c r="B26" s="2">
-        <v>2.3666700000000001</v>
+        <v>1.48333</v>
       </c>
       <c r="C26" s="1"/>
       <c r="F26" s="1">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="G26" s="6">
         <f>INDEX($B$2:$B$101,ROWS(C$2:C10)*10-10+COLUMNS($C10:C10))</f>
-        <v>0.45</v>
+        <v>1.01667</v>
       </c>
       <c r="H26" s="7">
         <f>INDEX($B$2:$B$101,ROWS(D$2:D10)*10-10+COLUMNS($C10:D10))</f>
-        <v>1.1666700000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I26" s="7">
         <f>INDEX($B$2:$B$101,ROWS(E$2:E10)*10-10+COLUMNS($C10:E10))</f>
-        <v>92.55</v>
+        <v>1.3</v>
       </c>
       <c r="J26" s="7">
         <f>INDEX($B$2:$B$101,ROWS(F$2:F10)*10-10+COLUMNS($C10:F10))</f>
-        <v>233.36699999999999</v>
+        <v>1.45</v>
       </c>
       <c r="K26" s="7">
         <f>INDEX($B$2:$B$101,ROWS(G$2:G10)*10-10+COLUMNS($C10:G10))</f>
-        <v>315.41699999999997</v>
+        <v>1.6</v>
       </c>
       <c r="L26" s="7">
         <f>INDEX($B$2:$B$101,ROWS(H$2:H10)*10-10+COLUMNS($C10:H10))</f>
-        <v>368</v>
+        <v>1.98333</v>
       </c>
       <c r="M26" s="7">
         <f>INDEX($B$2:$B$101,ROWS(I$2:I10)*10-10+COLUMNS($C10:I10))</f>
-        <v>410.28300000000002</v>
+        <v>2.3666700000000001</v>
       </c>
       <c r="N26" s="7">
         <f>INDEX($B$2:$B$101,ROWS(J$2:J10)*10-10+COLUMNS($C10:J10))</f>
-        <v>447.05</v>
+        <v>2.7</v>
       </c>
       <c r="O26" s="7">
         <f>INDEX($B$2:$B$101,ROWS(K$2:K10)*10-10+COLUMNS($C10:K10))</f>
-        <v>473.93299999999999</v>
+        <v>3.23333</v>
       </c>
       <c r="P26" s="8">
         <f>INDEX($B$2:$B$101,ROWS(L$2:L10)*10-10+COLUMNS($C10:L10))</f>
-        <v>485.91699999999997</v>
+        <v>4.1333299999999999</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>1.5833299999999999</v>
       </c>
       <c r="B27" s="2">
-        <v>3</v>
+        <v>1.6166700000000001</v>
       </c>
       <c r="C27" s="1"/>
       <c r="F27" s="1">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="G27" s="9">
         <f>INDEX($B$2:$B$101,ROWS(C$2:C11)*10-10+COLUMNS($C11:C11))</f>
-        <v>0.45</v>
+        <v>1.01667</v>
       </c>
       <c r="H27" s="10">
         <f>INDEX($B$2:$B$101,ROWS(D$2:D11)*10-10+COLUMNS($C11:D11))</f>
@@ -5093,625 +5043,625 @@
       </c>
       <c r="I27" s="10">
         <f>INDEX($B$2:$B$101,ROWS(E$2:E11)*10-10+COLUMNS($C11:E11))</f>
-        <v>92.55</v>
+        <v>1.3</v>
       </c>
       <c r="J27" s="10">
         <f>INDEX($B$2:$B$101,ROWS(F$2:F11)*10-10+COLUMNS($C11:F11))</f>
-        <v>233.36699999999999</v>
+        <v>1.4666699999999999</v>
       </c>
       <c r="K27" s="10">
         <f>INDEX($B$2:$B$101,ROWS(G$2:G11)*10-10+COLUMNS($C11:G11))</f>
-        <v>315.41699999999997</v>
+        <v>1.73333</v>
       </c>
       <c r="L27" s="10">
         <f>INDEX($B$2:$B$101,ROWS(H$2:H11)*10-10+COLUMNS($C11:H11))</f>
-        <v>368</v>
+        <v>2.0833300000000001</v>
       </c>
       <c r="M27" s="10">
         <f>INDEX($B$2:$B$101,ROWS(I$2:I11)*10-10+COLUMNS($C11:I11))</f>
-        <v>410.28300000000002</v>
+        <v>2.6166700000000001</v>
       </c>
       <c r="N27" s="10">
         <f>INDEX($B$2:$B$101,ROWS(J$2:J11)*10-10+COLUMNS($C11:J11))</f>
-        <v>447.05</v>
+        <v>3.5</v>
       </c>
       <c r="O27" s="10">
         <f>INDEX($B$2:$B$101,ROWS(K$2:K11)*10-10+COLUMNS($C11:K11))</f>
-        <v>473.93299999999999</v>
+        <v>4.3</v>
       </c>
       <c r="P27" s="11">
         <f>INDEX($B$2:$B$101,ROWS(L$2:L11)*10-10+COLUMNS($C11:L11))</f>
-        <v>485.91699999999997</v>
+        <v>7.7833300000000003</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>4.9666699999999997</v>
+        <v>1.7</v>
       </c>
       <c r="B28" s="2">
-        <v>4.9666699999999997</v>
+        <v>1.7166699999999999</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>18.416699999999999</v>
+        <v>1.85</v>
       </c>
       <c r="B29" s="2">
-        <v>18.416699999999999</v>
+        <v>1.8666700000000001</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>86.066699999999997</v>
+        <v>1.93333</v>
       </c>
       <c r="B30" s="2">
-        <v>86.066699999999997</v>
+        <v>1.98333</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>133.917</v>
+        <v>2.1</v>
       </c>
       <c r="B31" s="2">
-        <v>133.917</v>
+        <v>2.1333299999999999</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2">
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="B33" s="2">
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>1.3666700000000001</v>
+        <v>1.25</v>
       </c>
       <c r="B34" s="2">
-        <v>1.3666700000000001</v>
+        <v>1.25</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>1.93333</v>
+        <v>1.3333299999999999</v>
       </c>
       <c r="B35" s="2">
-        <v>1.93333</v>
+        <v>1.3333299999999999</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>3.26667</v>
+        <v>1.4666699999999999</v>
       </c>
       <c r="B36" s="2">
-        <v>3.26667</v>
+        <v>1.48333</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>11.8</v>
+        <v>1.6</v>
       </c>
       <c r="B37" s="2">
-        <v>11.8</v>
+        <v>1.6333299999999999</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>91.583299999999994</v>
+        <v>1.73333</v>
       </c>
       <c r="B38" s="2">
-        <v>91.583299999999994</v>
+        <v>1.75</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>170.21700000000001</v>
+        <v>1.8333299999999999</v>
       </c>
       <c r="B39" s="2">
-        <v>170.21700000000001</v>
+        <v>1.85</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>218.7</v>
+        <v>1.98333</v>
       </c>
       <c r="B40" s="2">
-        <v>218.7</v>
+        <v>2.0333299999999999</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>260.983</v>
+        <v>2.0833300000000001</v>
       </c>
       <c r="B41" s="2">
-        <v>260.983</v>
+        <v>2.1833300000000002</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="B42" s="2">
-        <v>0.43333300000000002</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>0.9</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="B43" s="2">
-        <v>0.9</v>
+        <v>1.1333299999999999</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>1.4166700000000001</v>
+        <v>1.23333</v>
       </c>
       <c r="B44" s="2">
-        <v>1.4166700000000001</v>
+        <v>1.25</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>3.01667</v>
+        <v>1.3833299999999999</v>
       </c>
       <c r="B45" s="2">
-        <v>3.01667</v>
+        <v>1.3833299999999999</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>23.9833</v>
+        <v>1.4666699999999999</v>
       </c>
       <c r="B46" s="2">
-        <v>23.9833</v>
+        <v>1.4666699999999999</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>115.617</v>
+        <v>1.5833299999999999</v>
       </c>
       <c r="B47" s="2">
-        <v>115.617</v>
+        <v>1.6166700000000001</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>189.483</v>
+        <v>1.7166699999999999</v>
       </c>
       <c r="B48" s="2">
-        <v>189.483</v>
+        <v>1.75</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>250.81700000000001</v>
+        <v>1.8333299999999999</v>
       </c>
       <c r="B49" s="2">
-        <v>250.81700000000001</v>
+        <v>1.9</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>294.66699999999997</v>
+        <v>1.9666699999999999</v>
       </c>
       <c r="B50" s="2">
-        <v>294.66699999999997</v>
+        <v>2.0333299999999999</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>323.3</v>
+        <v>2.1666699999999999</v>
       </c>
       <c r="B51" s="2">
-        <v>323.3</v>
+        <v>2.23333</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="B52" s="2">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>0.91666700000000001</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="B53" s="2">
-        <v>0.91666700000000001</v>
+        <v>1.1333299999999999</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>1.5333300000000001</v>
+        <v>1.25</v>
       </c>
       <c r="B54" s="2">
-        <v>1.5333300000000001</v>
+        <v>1.25</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>11.8667</v>
+        <v>1.35</v>
       </c>
       <c r="B55" s="2">
-        <v>11.8667</v>
+        <v>1.3833299999999999</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>132.35</v>
+        <v>1.48333</v>
       </c>
       <c r="B56" s="2">
-        <v>132.35</v>
+        <v>1.51667</v>
       </c>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>211.71700000000001</v>
+        <v>1.6333299999999999</v>
       </c>
       <c r="B57" s="2">
-        <v>211.71700000000001</v>
+        <v>1.6666700000000001</v>
       </c>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>271.53300000000002</v>
+        <v>1.75</v>
       </c>
       <c r="B58" s="2">
-        <v>271.53300000000002</v>
+        <v>1.7833300000000001</v>
       </c>
       <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>318.63299999999998</v>
+        <v>1.9</v>
       </c>
       <c r="B59" s="2">
-        <v>318.63299999999998</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>362.68299999999999</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="B60" s="2">
-        <v>362.68299999999999</v>
+        <v>2.15</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>389.65</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B61" s="2">
-        <v>389.65</v>
+        <v>2.5833300000000001</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>0.43333300000000002</v>
+        <v>1.01667</v>
       </c>
       <c r="B62" s="2">
-        <v>0.43333300000000002</v>
+        <v>1.01667</v>
       </c>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>0.93333299999999997</v>
+        <v>1.1166700000000001</v>
       </c>
       <c r="B63" s="2">
-        <v>0.93333299999999997</v>
+        <v>1.1333299999999999</v>
       </c>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="B64" s="2">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>128.31700000000001</v>
+        <v>1.3666700000000001</v>
       </c>
       <c r="B65" s="2">
-        <v>128.31700000000001</v>
+        <v>1.3833299999999999</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>225.417</v>
+        <v>1.5</v>
       </c>
       <c r="B66" s="2">
-        <v>225.417</v>
+        <v>1.51667</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>292.35000000000002</v>
+        <v>1.6333299999999999</v>
       </c>
       <c r="B67" s="2">
-        <v>292.35000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>344.233</v>
+        <v>1.8</v>
       </c>
       <c r="B68" s="2">
-        <v>344.233</v>
+        <v>1.85</v>
       </c>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>387.03300000000002</v>
+        <v>1.93333</v>
       </c>
       <c r="B69" s="2">
-        <v>387.03300000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>417.83300000000003</v>
+        <v>2.1</v>
       </c>
       <c r="B70" s="2">
-        <v>417.83300000000003</v>
+        <v>2.5666699999999998</v>
       </c>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>442.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B71" s="2">
-        <v>442.3</v>
+        <v>2.8666700000000001</v>
       </c>
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="B72" s="2">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>0.98333300000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="B73" s="2">
-        <v>0.98333300000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>34.966700000000003</v>
+        <v>1.26667</v>
       </c>
       <c r="B74" s="2">
-        <v>34.966700000000003</v>
+        <v>1.2833300000000001</v>
       </c>
       <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>190.93299999999999</v>
+        <v>1.3666700000000001</v>
       </c>
       <c r="B75" s="2">
-        <v>190.93299999999999</v>
+        <v>1.4</v>
       </c>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>285.233</v>
+        <v>1.55</v>
       </c>
       <c r="B76" s="2">
-        <v>285.233</v>
+        <v>1.56667</v>
       </c>
       <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>337.16699999999997</v>
+        <v>1.65</v>
       </c>
       <c r="B77" s="2">
-        <v>337.16699999999997</v>
+        <v>1.7166699999999999</v>
       </c>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>391.233</v>
+        <v>1.85</v>
       </c>
       <c r="B78" s="2">
-        <v>391.233</v>
+        <v>2.15</v>
       </c>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>423.06700000000001</v>
+        <v>2.1833300000000002</v>
       </c>
       <c r="B79" s="2">
-        <v>423.06700000000001</v>
+        <v>2.5333299999999999</v>
       </c>
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>444.2</v>
+        <v>2.5333299999999999</v>
       </c>
       <c r="B80" s="2">
-        <v>444.2</v>
+        <v>2.9166699999999999</v>
       </c>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>467.483</v>
+        <v>3</v>
       </c>
       <c r="B81" s="2">
-        <v>467.483</v>
+        <v>3.55</v>
       </c>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>0.45</v>
+        <v>1.01667</v>
       </c>
       <c r="B82" s="2">
-        <v>0.45</v>
+        <v>1.01667</v>
       </c>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>1.1666700000000001</v>
+        <v>1.1333299999999999</v>
       </c>
       <c r="B83" s="2">
-        <v>1.1666700000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>92.55</v>
+        <v>1.26667</v>
       </c>
       <c r="B84" s="2">
-        <v>92.55</v>
+        <v>1.3</v>
       </c>
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>233.36699999999999</v>
+        <v>1.4166700000000001</v>
       </c>
       <c r="B85" s="2">
-        <v>233.36699999999999</v>
+        <v>1.45</v>
       </c>
       <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>315.41699999999997</v>
+        <v>1.55</v>
       </c>
       <c r="B86" s="2">
-        <v>315.41699999999997</v>
+        <v>1.6</v>
       </c>
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>368</v>
+        <v>1.73333</v>
       </c>
       <c r="B87" s="2">
-        <v>368</v>
+        <v>1.98333</v>
       </c>
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>410.28300000000002</v>
+        <v>1.9166700000000001</v>
       </c>
       <c r="B88" s="2">
-        <v>410.28300000000002</v>
+        <v>2.3666700000000001</v>
       </c>
       <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>447.05</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B89" s="2">
-        <v>447.05</v>
+        <v>2.7</v>
       </c>
       <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>473.93299999999999</v>
+        <v>2.7166700000000001</v>
       </c>
       <c r="B90" s="2">
-        <v>473.93299999999999</v>
+        <v>3.23333</v>
       </c>
       <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>485.91699999999997</v>
+        <v>3.7833299999999999</v>
       </c>
       <c r="B91" s="2">
-        <v>485.91699999999997</v>
+        <v>4.1333299999999999</v>
       </c>
       <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>0.45</v>
+        <v>1.01667</v>
       </c>
       <c r="B92" s="2">
-        <v>0.45</v>
+        <v>1.01667</v>
       </c>
       <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>1.1666700000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="B93" s="2">
         <v>1.1666700000000001</v>
@@ -5720,73 +5670,73 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>92.55</v>
+        <v>1.2833300000000001</v>
       </c>
       <c r="B94" s="2">
-        <v>92.55</v>
+        <v>1.3</v>
       </c>
       <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>233.36699999999999</v>
+        <v>1.4166700000000001</v>
       </c>
       <c r="B95" s="2">
-        <v>233.36699999999999</v>
+        <v>1.4666699999999999</v>
       </c>
       <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>315.41699999999997</v>
+        <v>1.56667</v>
       </c>
       <c r="B96" s="2">
-        <v>315.41699999999997</v>
+        <v>1.73333</v>
       </c>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>368</v>
+        <v>1.76667</v>
       </c>
       <c r="B97" s="2">
-        <v>368</v>
+        <v>2.0833300000000001</v>
       </c>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>410.28300000000002</v>
+        <v>2.0833300000000001</v>
       </c>
       <c r="B98" s="2">
-        <v>410.28300000000002</v>
+        <v>2.6166700000000001</v>
       </c>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>447.05</v>
+        <v>3.01667</v>
       </c>
       <c r="B99" s="2">
-        <v>447.05</v>
+        <v>3.5</v>
       </c>
       <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>473.93299999999999</v>
+        <v>3.9</v>
       </c>
       <c r="B100" s="2">
-        <v>473.93299999999999</v>
+        <v>4.3</v>
       </c>
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>485.91699999999997</v>
+        <v>7.85</v>
       </c>
       <c r="B101" s="2">
-        <v>485.91699999999997</v>
+        <v>7.7833300000000003</v>
       </c>
       <c r="C101" s="1"/>
     </row>
